--- a/metadata/longitudinal_study_table_header.xlsx
+++ b/metadata/longitudinal_study_table_header.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgb\data\ukbb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgb\data\ukbb\scripts\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A87FF66-F7AA-40E9-B590-B55D4DA12816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C85277-1A59-470F-8A0A-96BAB4009849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5640" windowWidth="38640" windowHeight="21120" xr2:uid="{F8457ACD-FF84-413C-870F-7FA728639CEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
   <si>
     <t>Description</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Category of the phecode</t>
   </si>
   <si>
-    <t>phecodes</t>
-  </si>
-  <si>
     <t>List of sub-phecodes included in this phecode</t>
   </si>
   <si>
@@ -387,6 +384,12 @@
   </si>
   <si>
     <t>Benjamini-Hochberg correct p-value of any age interaction effect of overall_age_diff_p</t>
+  </si>
+  <si>
+    <t>PheCODE</t>
+  </si>
+  <si>
+    <t>Subphecodes</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF796B-94A0-4367-A2FB-C2756585F7A0}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
@@ -1140,7 +1143,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1167,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1271,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1282,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1293,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,7 +1301,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,7 +1341,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,7 +1370,7 @@
     </row>
     <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>52</v>
@@ -1426,18 +1429,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -1445,122 +1448,122 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -1584,7 +1587,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
         <v>56</v>
@@ -1611,42 +1614,42 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" t="s">
         <v>62</v>
-      </c>
-      <c r="B73" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
         <v>64</v>
-      </c>
-      <c r="B74" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
         <v>66</v>
-      </c>
-      <c r="B75" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
         <v>68</v>
-      </c>
-      <c r="B76" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
         <v>81</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>57</v>
